--- a/Documents/Personal files/TL/TidsrapportVecka17Tim.xlsx
+++ b/Documents/Personal files/TL/TidsrapportVecka17Tim.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Tidsrapport</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>Unity-leveldesign  + möte</t>
+  </si>
+  <si>
+    <t>Unity Leveldesign</t>
+  </si>
+  <si>
+    <t>Uniteeeeé</t>
+  </si>
+  <si>
+    <t>Unity</t>
   </si>
 </sst>
 </file>
@@ -400,7 +409,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,6 +502,12 @@
       <c r="A12" s="1">
         <v>42117</v>
       </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -503,18 +518,30 @@
       <c r="A14" s="1">
         <v>42119</v>
       </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>42120</v>
       </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>10</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
